--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>拾取范围</t>
+  </si>
+  <si>
+    <t>猎人</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -1169,12 +1172,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EH18"/>
+  <dimension ref="A1:EH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="BY26" sqref="BY26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="2:138">
       <c r="B12" s="2">
-        <v>20000</v>
+        <v>10001</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
@@ -2552,13 +2555,13 @@
         <v>18</v>
       </c>
       <c r="E12" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
@@ -2582,7 +2585,19 @@
         <v>23</v>
       </c>
       <c r="T12" s="2">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>24</v>
@@ -2702,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="CB12" s="2">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="CC12" s="2" t="s">
         <v>33</v>
@@ -2812,12 +2827,6 @@
       <c r="DR12" s="2">
         <v>0</v>
       </c>
-      <c r="DT12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DU12" s="2">
-        <v>50</v>
-      </c>
       <c r="DW12" s="2" t="s">
         <v>58</v>
       </c>
@@ -2827,20 +2836,20 @@
       <c r="DY12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DZ12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA12" s="2">
-        <v>7</v>
-      </c>
-      <c r="EB12" s="2" t="s">
+      <c r="EC12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="ED12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EE12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="EF12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="EG12" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="EH12" s="2" t="s">
         <v>33</v>
@@ -2848,7 +2857,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="2:138">
       <c r="B13" s="2">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -3153,7 +3162,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:138">
       <c r="B14" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
@@ -3162,13 +3171,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
@@ -3456,112 +3465,310 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="3"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
-      <c r="CD15" s="3"/>
-      <c r="CE15" s="3"/>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
-      <c r="CJ15" s="3"/>
-      <c r="CK15" s="3"/>
-      <c r="CM15" s="3"/>
-      <c r="CN15" s="3"/>
-      <c r="CP15" s="3"/>
-      <c r="CQ15" s="3"/>
-      <c r="CS15" s="3"/>
-      <c r="CT15" s="3"/>
-      <c r="CV15" s="3"/>
-      <c r="CW15" s="3"/>
-      <c r="CX15" s="3"/>
-      <c r="CY15" s="3"/>
-      <c r="CZ15" s="3"/>
-      <c r="DB15" s="3"/>
-      <c r="DC15" s="3"/>
-      <c r="DD15" s="3"/>
-      <c r="DE15" s="3"/>
-      <c r="DF15" s="3"/>
-      <c r="DH15" s="3"/>
-      <c r="DI15" s="3"/>
-      <c r="DK15" s="3"/>
-      <c r="DL15" s="3"/>
-      <c r="DN15" s="3"/>
-      <c r="DO15" s="3"/>
-      <c r="DQ15" s="3"/>
-      <c r="DR15" s="3"/>
-      <c r="DT15" s="3"/>
-      <c r="DU15" s="3"/>
-      <c r="DW15" s="3"/>
-      <c r="DX15" s="3"/>
-      <c r="DZ15" s="3"/>
-      <c r="EA15" s="3"/>
-      <c r="EC15" s="3"/>
-      <c r="ED15" s="3"/>
-      <c r="EF15" s="3"/>
-      <c r="EG15" s="3"/>
-      <c r="EH15" s="3"/>
+    <row r="15" s="2" customFormat="1" spans="2:138">
+      <c r="B15" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU15" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA15" s="2">
+        <v>7</v>
+      </c>
+      <c r="EB15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EH15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:138">
       <c r="B16" s="3"/>
@@ -3596,9 +3803,6 @@
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
@@ -3633,10 +3837,38 @@
       <c r="CB16" s="3"/>
       <c r="CD16" s="3"/>
       <c r="CE16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
       <c r="CM16" s="3"/>
       <c r="CN16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="3"/>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CV16" s="3"/>
+      <c r="CW16" s="3"/>
+      <c r="CX16" s="3"/>
+      <c r="CY16" s="3"/>
+      <c r="CZ16" s="3"/>
+      <c r="DB16" s="3"/>
+      <c r="DC16" s="3"/>
+      <c r="DD16" s="3"/>
+      <c r="DE16" s="3"/>
+      <c r="DF16" s="3"/>
+      <c r="DH16" s="3"/>
+      <c r="DI16" s="3"/>
+      <c r="DK16" s="3"/>
+      <c r="DL16" s="3"/>
+      <c r="DN16" s="3"/>
+      <c r="DO16" s="3"/>
+      <c r="DQ16" s="3"/>
+      <c r="DR16" s="3"/>
       <c r="DT16" s="3"/>
       <c r="DU16" s="3"/>
+      <c r="DW16" s="3"/>
+      <c r="DX16" s="3"/>
       <c r="DZ16" s="3"/>
       <c r="EA16" s="3"/>
       <c r="EC16" s="3"/>
@@ -3809,6 +4041,88 @@
       <c r="EG18" s="3"/>
       <c r="EH18" s="3"/>
     </row>
+    <row r="19" spans="2:138">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="DT19" s="3"/>
+      <c r="DU19" s="3"/>
+      <c r="DZ19" s="3"/>
+      <c r="EA19" s="3"/>
+      <c r="EC19" s="3"/>
+      <c r="ED19" s="3"/>
+      <c r="EF19" s="3"/>
+      <c r="EG19" s="3"/>
+      <c r="EH19" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="47">
     <mergeCell ref="D1:EH1"/>

--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -67,7 +67,7 @@
     <t>别名</t>
   </si>
   <si>
-    <t>靶子</t>
+    <t>靶子战士</t>
   </si>
   <si>
     <t>最大血量</t>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>身高</t>
+  </si>
+  <si>
+    <t>靶子骑士</t>
+  </si>
+  <si>
+    <t>靶子弓箭手</t>
   </si>
   <si>
     <t>战士</t>
@@ -1172,12 +1178,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EH19"/>
+  <dimension ref="A1:EH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="CY1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BY26" sqref="BY26"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1944,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>20</v>
@@ -2232,25 +2238,329 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
+    <row r="10" s="2" customFormat="1" spans="2:138">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU10" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA10" s="2">
+        <v>7</v>
+      </c>
+      <c r="EB10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EH10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="11" s="2" customFormat="1" spans="2:138">
       <c r="B11" s="2">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>20</v>
@@ -2276,18 +2586,6 @@
       <c r="T11" s="2">
         <v>100</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
       <c r="AB11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2608,7 @@
         <v>27</v>
       </c>
       <c r="AL11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN11" s="2" t="s">
         <v>28</v>
@@ -2406,7 +2704,7 @@
         <v>42</v>
       </c>
       <c r="CB11" s="2">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="CC11" s="2" t="s">
         <v>33</v>
@@ -2516,6 +2814,12 @@
       <c r="DR11" s="2">
         <v>0</v>
       </c>
+      <c r="DT11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU11" s="2">
+        <v>50</v>
+      </c>
       <c r="DW11" s="2" t="s">
         <v>58</v>
       </c>
@@ -2525,354 +2829,44 @@
       <c r="DY11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="EC11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="ED11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="EE11" s="2" t="s">
+      <c r="DZ11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA11" s="2">
+        <v>10</v>
+      </c>
+      <c r="EB11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="EF11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="EG11" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="EH11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:138">
-      <c r="B12" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>100</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="2">
-        <v>100</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB12" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="CC12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>1</v>
-      </c>
-      <c r="CI12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="CK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CN12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CQ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CW12" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="DC12" s="2">
-        <v>1</v>
-      </c>
-      <c r="DD12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="DF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="DI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="DL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="DO12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="DR12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="DX12" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="ED12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="EE12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="EG12" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="EH12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="12" s="1" customFormat="1"/>
     <row r="13" s="2" customFormat="1" spans="2:138">
       <c r="B13" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
@@ -2896,7 +2890,19 @@
         <v>23</v>
       </c>
       <c r="T13" s="2">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>24</v>
@@ -3016,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="CB13" s="2">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="CC13" s="2" t="s">
         <v>33</v>
@@ -3126,12 +3132,6 @@
       <c r="DR13" s="2">
         <v>0</v>
       </c>
-      <c r="DT13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DU13" s="2">
-        <v>50</v>
-      </c>
       <c r="DW13" s="2" t="s">
         <v>58</v>
       </c>
@@ -3141,20 +3141,20 @@
       <c r="DY13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DZ13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA13" s="2">
-        <v>7</v>
-      </c>
-      <c r="EB13" s="2" t="s">
+      <c r="EC13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EE13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="EF13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="EG13" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="EH13" s="2" t="s">
         <v>33</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:138">
       <c r="B14" s="2">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
@@ -3171,13 +3171,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
@@ -3201,7 +3201,19 @@
         <v>23</v>
       </c>
       <c r="T14" s="2">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>24</v>
@@ -3321,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="CB14" s="2">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="CC14" s="2" t="s">
         <v>33</v>
@@ -3431,12 +3443,6 @@
       <c r="DR14" s="2">
         <v>0</v>
       </c>
-      <c r="DT14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DU14" s="2">
-        <v>50</v>
-      </c>
       <c r="DW14" s="2" t="s">
         <v>58</v>
       </c>
@@ -3446,20 +3452,20 @@
       <c r="DY14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DZ14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA14" s="2">
-        <v>7</v>
-      </c>
-      <c r="EB14" s="2" t="s">
+      <c r="EC14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EE14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="EF14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="EG14" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="EH14" s="2" t="s">
         <v>33</v>
@@ -3467,7 +3473,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:138">
       <c r="B15" s="2">
-        <v>20002</v>
+        <v>20000</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>68</v>
@@ -3476,13 +3482,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
@@ -3770,194 +3776,615 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-      <c r="BX16" s="3"/>
-      <c r="BY16" s="3"/>
-      <c r="BZ16" s="3"/>
-      <c r="CA16" s="3"/>
-      <c r="CB16" s="3"/>
-      <c r="CD16" s="3"/>
-      <c r="CE16" s="3"/>
-      <c r="CG16" s="3"/>
-      <c r="CH16" s="3"/>
-      <c r="CJ16" s="3"/>
-      <c r="CK16" s="3"/>
-      <c r="CM16" s="3"/>
-      <c r="CN16" s="3"/>
-      <c r="CP16" s="3"/>
-      <c r="CQ16" s="3"/>
-      <c r="CS16" s="3"/>
-      <c r="CT16" s="3"/>
-      <c r="CV16" s="3"/>
-      <c r="CW16" s="3"/>
-      <c r="CX16" s="3"/>
-      <c r="CY16" s="3"/>
-      <c r="CZ16" s="3"/>
-      <c r="DB16" s="3"/>
-      <c r="DC16" s="3"/>
-      <c r="DD16" s="3"/>
-      <c r="DE16" s="3"/>
-      <c r="DF16" s="3"/>
-      <c r="DH16" s="3"/>
-      <c r="DI16" s="3"/>
-      <c r="DK16" s="3"/>
-      <c r="DL16" s="3"/>
-      <c r="DN16" s="3"/>
-      <c r="DO16" s="3"/>
-      <c r="DQ16" s="3"/>
-      <c r="DR16" s="3"/>
-      <c r="DT16" s="3"/>
-      <c r="DU16" s="3"/>
-      <c r="DW16" s="3"/>
-      <c r="DX16" s="3"/>
-      <c r="DZ16" s="3"/>
-      <c r="EA16" s="3"/>
-      <c r="EC16" s="3"/>
-      <c r="ED16" s="3"/>
-      <c r="EF16" s="3"/>
-      <c r="EG16" s="3"/>
-      <c r="EH16" s="3"/>
+    <row r="16" s="2" customFormat="1" spans="2:138">
+      <c r="B16" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>100</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU16" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA16" s="2">
+        <v>7</v>
+      </c>
+      <c r="EB16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EH16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="2:138">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="3"/>
-      <c r="BX17" s="3"/>
-      <c r="BY17" s="3"/>
-      <c r="BZ17" s="3"/>
-      <c r="CA17" s="3"/>
-      <c r="CB17" s="3"/>
-      <c r="CD17" s="3"/>
-      <c r="CE17" s="3"/>
-      <c r="CM17" s="3"/>
-      <c r="CN17" s="3"/>
-      <c r="DT17" s="3"/>
-      <c r="DU17" s="3"/>
-      <c r="DZ17" s="3"/>
-      <c r="EA17" s="3"/>
-      <c r="EC17" s="3"/>
-      <c r="ED17" s="3"/>
-      <c r="EF17" s="3"/>
-      <c r="EG17" s="3"/>
-      <c r="EH17" s="3"/>
+    <row r="17" s="2" customFormat="1" spans="2:138">
+      <c r="B17" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2">
+        <v>80</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>100</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU17" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA17" s="2">
+        <v>10</v>
+      </c>
+      <c r="EB17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EH17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:138">
       <c r="B18" s="3"/>
@@ -3992,9 +4419,6 @@
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
@@ -4029,10 +4453,38 @@
       <c r="CB18" s="3"/>
       <c r="CD18" s="3"/>
       <c r="CE18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
       <c r="CM18" s="3"/>
       <c r="CN18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="3"/>
+      <c r="CS18" s="3"/>
+      <c r="CT18" s="3"/>
+      <c r="CV18" s="3"/>
+      <c r="CW18" s="3"/>
+      <c r="CX18" s="3"/>
+      <c r="CY18" s="3"/>
+      <c r="CZ18" s="3"/>
+      <c r="DB18" s="3"/>
+      <c r="DC18" s="3"/>
+      <c r="DD18" s="3"/>
+      <c r="DE18" s="3"/>
+      <c r="DF18" s="3"/>
+      <c r="DH18" s="3"/>
+      <c r="DI18" s="3"/>
+      <c r="DK18" s="3"/>
+      <c r="DL18" s="3"/>
+      <c r="DN18" s="3"/>
+      <c r="DO18" s="3"/>
+      <c r="DQ18" s="3"/>
+      <c r="DR18" s="3"/>
       <c r="DT18" s="3"/>
       <c r="DU18" s="3"/>
+      <c r="DW18" s="3"/>
+      <c r="DX18" s="3"/>
       <c r="DZ18" s="3"/>
       <c r="EA18" s="3"/>
       <c r="EC18" s="3"/>
@@ -4123,6 +4575,170 @@
       <c r="EG19" s="3"/>
       <c r="EH19" s="3"/>
     </row>
+    <row r="20" spans="2:138">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="DT20" s="3"/>
+      <c r="DU20" s="3"/>
+      <c r="DZ20" s="3"/>
+      <c r="EA20" s="3"/>
+      <c r="EC20" s="3"/>
+      <c r="ED20" s="3"/>
+      <c r="EF20" s="3"/>
+      <c r="EG20" s="3"/>
+      <c r="EH20" s="3"/>
+    </row>
+    <row r="21" spans="2:138">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="DT21" s="3"/>
+      <c r="DU21" s="3"/>
+      <c r="DZ21" s="3"/>
+      <c r="EA21" s="3"/>
+      <c r="EC21" s="3"/>
+      <c r="ED21" s="3"/>
+      <c r="EF21" s="3"/>
+      <c r="EG21" s="3"/>
+      <c r="EH21" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="47">
     <mergeCell ref="D1:EH1"/>

--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheel1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -218,6 +231,9 @@
   </si>
   <si>
     <t>猎人</t>
+  </si>
+  <si>
+    <t>法师</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -232,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1178,12 +1194,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EH21"/>
+  <dimension ref="A1:EH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CY1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3473,7 +3489,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:138">
       <c r="B15" s="2">
-        <v>20000</v>
+        <v>10002</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>68</v>
@@ -3482,13 +3498,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
@@ -3512,7 +3528,19 @@
         <v>23</v>
       </c>
       <c r="T15" s="2">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>24</v>
@@ -3632,7 +3660,7 @@
         <v>42</v>
       </c>
       <c r="CB15" s="2">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="CC15" s="2" t="s">
         <v>33</v>
@@ -3742,12 +3770,6 @@
       <c r="DR15" s="2">
         <v>0</v>
       </c>
-      <c r="DT15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DU15" s="2">
-        <v>50</v>
-      </c>
       <c r="DW15" s="2" t="s">
         <v>58</v>
       </c>
@@ -3757,20 +3779,20 @@
       <c r="DY15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DZ15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA15" s="2">
-        <v>7</v>
-      </c>
-      <c r="EB15" s="2" t="s">
+      <c r="EC15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EE15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="EF15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="EG15" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="EH15" s="2" t="s">
         <v>33</v>
@@ -3778,7 +3800,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="2:138">
       <c r="B16" s="2">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>69</v>
@@ -4083,7 +4105,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="2:138">
       <c r="B17" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
@@ -4092,13 +4114,13 @@
         <v>18</v>
       </c>
       <c r="E17" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>20</v>
@@ -4371,7 +4393,7 @@
         <v>59</v>
       </c>
       <c r="EA17" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="EB17" s="2" t="s">
         <v>33</v>
@@ -4386,112 +4408,310 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="3"/>
-      <c r="BX18" s="3"/>
-      <c r="BY18" s="3"/>
-      <c r="BZ18" s="3"/>
-      <c r="CA18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CD18" s="3"/>
-      <c r="CE18" s="3"/>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="3"/>
-      <c r="CJ18" s="3"/>
-      <c r="CK18" s="3"/>
-      <c r="CM18" s="3"/>
-      <c r="CN18" s="3"/>
-      <c r="CP18" s="3"/>
-      <c r="CQ18" s="3"/>
-      <c r="CS18" s="3"/>
-      <c r="CT18" s="3"/>
-      <c r="CV18" s="3"/>
-      <c r="CW18" s="3"/>
-      <c r="CX18" s="3"/>
-      <c r="CY18" s="3"/>
-      <c r="CZ18" s="3"/>
-      <c r="DB18" s="3"/>
-      <c r="DC18" s="3"/>
-      <c r="DD18" s="3"/>
-      <c r="DE18" s="3"/>
-      <c r="DF18" s="3"/>
-      <c r="DH18" s="3"/>
-      <c r="DI18" s="3"/>
-      <c r="DK18" s="3"/>
-      <c r="DL18" s="3"/>
-      <c r="DN18" s="3"/>
-      <c r="DO18" s="3"/>
-      <c r="DQ18" s="3"/>
-      <c r="DR18" s="3"/>
-      <c r="DT18" s="3"/>
-      <c r="DU18" s="3"/>
-      <c r="DW18" s="3"/>
-      <c r="DX18" s="3"/>
-      <c r="DZ18" s="3"/>
-      <c r="EA18" s="3"/>
-      <c r="EC18" s="3"/>
-      <c r="ED18" s="3"/>
-      <c r="EF18" s="3"/>
-      <c r="EG18" s="3"/>
-      <c r="EH18" s="3"/>
+    <row r="18" s="2" customFormat="1" spans="2:138">
+      <c r="B18" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2">
+        <v>80</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>100</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC18" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU18" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA18" s="2">
+        <v>10</v>
+      </c>
+      <c r="EB18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EH18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="2:138">
       <c r="B19" s="3"/>
@@ -4526,9 +4746,6 @@
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
@@ -4563,10 +4780,38 @@
       <c r="CB19" s="3"/>
       <c r="CD19" s="3"/>
       <c r="CE19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
       <c r="CM19" s="3"/>
       <c r="CN19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="3"/>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CV19" s="3"/>
+      <c r="CW19" s="3"/>
+      <c r="CX19" s="3"/>
+      <c r="CY19" s="3"/>
+      <c r="CZ19" s="3"/>
+      <c r="DB19" s="3"/>
+      <c r="DC19" s="3"/>
+      <c r="DD19" s="3"/>
+      <c r="DE19" s="3"/>
+      <c r="DF19" s="3"/>
+      <c r="DH19" s="3"/>
+      <c r="DI19" s="3"/>
+      <c r="DK19" s="3"/>
+      <c r="DL19" s="3"/>
+      <c r="DN19" s="3"/>
+      <c r="DO19" s="3"/>
+      <c r="DQ19" s="3"/>
+      <c r="DR19" s="3"/>
       <c r="DT19" s="3"/>
       <c r="DU19" s="3"/>
+      <c r="DW19" s="3"/>
+      <c r="DX19" s="3"/>
       <c r="DZ19" s="3"/>
       <c r="EA19" s="3"/>
       <c r="EC19" s="3"/>
@@ -4739,6 +4984,88 @@
       <c r="EG21" s="3"/>
       <c r="EH21" s="3"/>
     </row>
+    <row r="22" spans="2:138">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="DT22" s="3"/>
+      <c r="DU22" s="3"/>
+      <c r="DZ22" s="3"/>
+      <c r="EA22" s="3"/>
+      <c r="EC22" s="3"/>
+      <c r="ED22" s="3"/>
+      <c r="EF22" s="3"/>
+      <c r="EG22" s="3"/>
+      <c r="EH22" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="47">
     <mergeCell ref="D1:EH1"/>

--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheel1" sheetId="2" r:id="rId1"/>
@@ -1199,10 +1199,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
@@ -2876,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
@@ -3187,7 +3187,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -3498,7 +3498,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>

--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -209,9 +209,15 @@
     <t>侦查范围</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>身高</t>
   </si>
   <si>
+    <t>视角</t>
+  </si>
+  <si>
     <t>靶子骑士</t>
   </si>
   <si>
@@ -243,6 +249,9 @@
   </si>
   <si>
     <t>骷髅弓箭手</t>
+  </si>
+  <si>
+    <t>哥布林巫医</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -873,6 +882,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1194,12 +1206,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EH22"/>
+  <dimension ref="A1:EN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1338,11 +1350,11 @@
     <col min="132" max="132" width="4.875" style="2" customWidth="1"/>
     <col min="133" max="133" width="8.875" style="2" customWidth="1"/>
     <col min="134" max="134" width="6" style="2" customWidth="1"/>
-    <col min="135" max="135" width="4.875" style="2" customWidth="1"/>
-    <col min="136" max="136" width="5.125" style="2" customWidth="1"/>
-    <col min="137" max="137" width="6" style="2" customWidth="1"/>
-    <col min="138" max="138" width="4.875" style="2" customWidth="1"/>
-    <col min="139" max="16384" width="9" style="2"/>
+    <col min="135" max="138" width="4.875" style="2" customWidth="1"/>
+    <col min="139" max="139" width="5.125" style="2" customWidth="1"/>
+    <col min="140" max="143" width="6" style="2" customWidth="1"/>
+    <col min="144" max="144" width="4.875" style="2" customWidth="1"/>
+    <col min="145" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1373,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:136">
+    <row r="3" s="1" customFormat="1" spans="1:144">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1524,18 @@
       <c r="EF3" s="1">
         <v>44</v>
       </c>
+      <c r="EI3" s="4">
+        <v>45</v>
+      </c>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4">
+        <v>46</v>
+      </c>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:138">
+    <row r="4" s="1" customFormat="1" spans="1:144">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,6 +1942,24 @@
         <v>11</v>
       </c>
       <c r="EH4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EM4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1949,7 +1989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:138">
+    <row r="9" s="2" customFormat="1" spans="2:144">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -2248,18 +2288,33 @@
         <v>60</v>
       </c>
       <c r="EG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ9" s="2">
         <v>1.5</v>
       </c>
-      <c r="EH9" s="2" t="s">
+      <c r="EK9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM9" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="2:138">
+    <row r="10" s="2" customFormat="1" spans="2:144">
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2553,18 +2608,33 @@
         <v>60</v>
       </c>
       <c r="EG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ10" s="2">
         <v>1.5</v>
       </c>
-      <c r="EH10" s="2" t="s">
+      <c r="EK10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM10" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:138">
+    <row r="11" s="2" customFormat="1" spans="2:144">
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -2858,31 +2928,46 @@
         <v>60</v>
       </c>
       <c r="EG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ11" s="2">
         <v>1.5</v>
       </c>
-      <c r="EH11" s="2" t="s">
+      <c r="EK11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM11" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="2" customFormat="1" spans="2:138">
+    <row r="13" s="2" customFormat="1" spans="2:144">
       <c r="B13" s="2">
         <v>10000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
@@ -2909,13 +2994,13 @@
         <v>100</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="2">
         <v>0</v>
@@ -3158,7 +3243,7 @@
         <v>33</v>
       </c>
       <c r="EC13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="ED13" s="2">
         <v>0.5</v>
@@ -3170,24 +3255,39 @@
         <v>60</v>
       </c>
       <c r="EG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ13" s="2">
         <v>1.8</v>
       </c>
-      <c r="EH13" s="2" t="s">
+      <c r="EK13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM13" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:138">
+    <row r="14" s="2" customFormat="1" spans="2:144">
       <c r="B14" s="2">
         <v>10001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -3220,13 +3320,13 @@
         <v>100</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -3469,7 +3569,7 @@
         <v>33</v>
       </c>
       <c r="EC14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="ED14" s="2">
         <v>0.5</v>
@@ -3481,24 +3581,39 @@
         <v>60</v>
       </c>
       <c r="EG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ14" s="2">
         <v>1.8</v>
       </c>
-      <c r="EH14" s="2" t="s">
+      <c r="EK14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM14" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="2:138">
+    <row r="15" s="2" customFormat="1" spans="2:144">
       <c r="B15" s="2">
         <v>10002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
@@ -3531,13 +3646,13 @@
         <v>100</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -3780,7 +3895,7 @@
         <v>33</v>
       </c>
       <c r="EC15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="ED15" s="2">
         <v>0.5</v>
@@ -3792,323 +3907,34 @@
         <v>60</v>
       </c>
       <c r="EG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ15" s="2">
         <v>1.8</v>
       </c>
-      <c r="EH15" s="2" t="s">
+      <c r="EK15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM15" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:138">
-      <c r="B16" s="2">
+    <row r="16" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1" spans="2:144">
+      <c r="B17" s="2">
         <v>20000</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>100</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="2">
-        <v>50</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB16" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="CC16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CE16" s="2">
-        <v>1</v>
-      </c>
-      <c r="CF16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH16" s="2">
-        <v>1</v>
-      </c>
-      <c r="CI16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="CK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CQ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CW16" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="DC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="DD16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="DF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="DI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="DL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="DO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="DR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DU16" s="2">
-        <v>50</v>
-      </c>
-      <c r="DW16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="DX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA16" s="2">
-        <v>7</v>
-      </c>
-      <c r="EB16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="EG16" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="EH16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:138">
-      <c r="B17" s="2">
-        <v>20001</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -4402,30 +4228,45 @@
         <v>60</v>
       </c>
       <c r="EG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ17" s="2">
         <v>1.5</v>
       </c>
-      <c r="EH17" s="2" t="s">
+      <c r="EK17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM17" s="2">
+        <v>120</v>
+      </c>
+      <c r="EN17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:138">
+    <row r="18" s="2" customFormat="1" spans="2:144">
       <c r="B18" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>20</v>
@@ -4698,7 +4539,7 @@
         <v>59</v>
       </c>
       <c r="EA18" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="EB18" s="2" t="s">
         <v>33</v>
@@ -4707,369 +4548,683 @@
         <v>60</v>
       </c>
       <c r="EG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ18" s="2">
         <v>1.5</v>
       </c>
-      <c r="EH18" s="2" t="s">
+      <c r="EK18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM18" s="2">
+        <v>120</v>
+      </c>
+      <c r="EN18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="3"/>
-      <c r="BU19" s="3"/>
-      <c r="BV19" s="3"/>
-      <c r="BW19" s="3"/>
-      <c r="BX19" s="3"/>
-      <c r="BY19" s="3"/>
-      <c r="BZ19" s="3"/>
-      <c r="CA19" s="3"/>
-      <c r="CB19" s="3"/>
-      <c r="CD19" s="3"/>
-      <c r="CE19" s="3"/>
-      <c r="CG19" s="3"/>
-      <c r="CH19" s="3"/>
-      <c r="CJ19" s="3"/>
-      <c r="CK19" s="3"/>
-      <c r="CM19" s="3"/>
-      <c r="CN19" s="3"/>
-      <c r="CP19" s="3"/>
-      <c r="CQ19" s="3"/>
-      <c r="CS19" s="3"/>
-      <c r="CT19" s="3"/>
-      <c r="CV19" s="3"/>
-      <c r="CW19" s="3"/>
-      <c r="CX19" s="3"/>
-      <c r="CY19" s="3"/>
-      <c r="CZ19" s="3"/>
-      <c r="DB19" s="3"/>
-      <c r="DC19" s="3"/>
-      <c r="DD19" s="3"/>
-      <c r="DE19" s="3"/>
-      <c r="DF19" s="3"/>
-      <c r="DH19" s="3"/>
-      <c r="DI19" s="3"/>
-      <c r="DK19" s="3"/>
-      <c r="DL19" s="3"/>
-      <c r="DN19" s="3"/>
-      <c r="DO19" s="3"/>
-      <c r="DQ19" s="3"/>
-      <c r="DR19" s="3"/>
-      <c r="DT19" s="3"/>
-      <c r="DU19" s="3"/>
-      <c r="DW19" s="3"/>
-      <c r="DX19" s="3"/>
-      <c r="DZ19" s="3"/>
-      <c r="EA19" s="3"/>
-      <c r="EC19" s="3"/>
-      <c r="ED19" s="3"/>
-      <c r="EF19" s="3"/>
-      <c r="EG19" s="3"/>
-      <c r="EH19" s="3"/>
+    <row r="19" s="2" customFormat="1" spans="2:144">
+      <c r="B19" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>100</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="CC19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC19" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU19" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA19" s="2">
+        <v>10</v>
+      </c>
+      <c r="EB19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EF19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EK19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM19" s="2">
+        <v>120</v>
+      </c>
+      <c r="EN19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="2:138">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3"/>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CD20" s="3"/>
-      <c r="CE20" s="3"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="DT20" s="3"/>
-      <c r="DU20" s="3"/>
-      <c r="DZ20" s="3"/>
-      <c r="EA20" s="3"/>
-      <c r="EC20" s="3"/>
-      <c r="ED20" s="3"/>
-      <c r="EF20" s="3"/>
-      <c r="EG20" s="3"/>
-      <c r="EH20" s="3"/>
-    </row>
-    <row r="21" spans="2:138">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-      <c r="BX21" s="3"/>
-      <c r="BY21" s="3"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
-      <c r="CD21" s="3"/>
-      <c r="CE21" s="3"/>
-      <c r="CM21" s="3"/>
-      <c r="CN21" s="3"/>
-      <c r="DT21" s="3"/>
-      <c r="DU21" s="3"/>
-      <c r="DZ21" s="3"/>
-      <c r="EA21" s="3"/>
-      <c r="EC21" s="3"/>
-      <c r="ED21" s="3"/>
-      <c r="EF21" s="3"/>
-      <c r="EG21" s="3"/>
-      <c r="EH21" s="3"/>
-    </row>
-    <row r="22" spans="2:138">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="3"/>
-      <c r="BX22" s="3"/>
-      <c r="BY22" s="3"/>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3"/>
-      <c r="CB22" s="3"/>
-      <c r="CD22" s="3"/>
-      <c r="CE22" s="3"/>
-      <c r="CM22" s="3"/>
-      <c r="CN22" s="3"/>
-      <c r="DT22" s="3"/>
-      <c r="DU22" s="3"/>
-      <c r="DZ22" s="3"/>
-      <c r="EA22" s="3"/>
-      <c r="EC22" s="3"/>
-      <c r="ED22" s="3"/>
-      <c r="EF22" s="3"/>
-      <c r="EG22" s="3"/>
-      <c r="EH22" s="3"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1" spans="2:144">
+      <c r="B21" s="2">
+        <v>30001</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB21" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="CC21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH21" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX21" s="2"/>
+      <c r="CY21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC21" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DH21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU21" s="2">
+        <v>50</v>
+      </c>
+      <c r="DW21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA21" s="2">
+        <v>7</v>
+      </c>
+      <c r="EB21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EC21" s="2"/>
+      <c r="ED21" s="2"/>
+      <c r="EF21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="EK21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EL21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EM21" s="2">
+        <v>360</v>
+      </c>
+      <c r="EN21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="D1:EH1"/>
-    <mergeCell ref="D2:EH2"/>
+  <mergeCells count="49">
+    <mergeCell ref="D1:EN1"/>
+    <mergeCell ref="D2:EN2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
@@ -5115,6 +5270,8 @@
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:EE3"/>
     <mergeCell ref="EF3:EH3"/>
+    <mergeCell ref="EI3:EK3"/>
+    <mergeCell ref="EL3:EN3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/numeric_actor.xlsx
+++ b/Luban/ExcelConfig/Datas/numeric_actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheel1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -53,12 +53,6 @@
     <t>list,numeric.BasicValueInfo</t>
   </si>
   <si>
-    <t>#26</t>
-  </si>
-  <si>
-    <t>#27</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>受击硬直</t>
+  </si>
+  <si>
+    <t>威胁值</t>
+  </si>
+  <si>
+    <t>警惕值</t>
   </si>
   <si>
     <t>攻击欲望</t>
@@ -873,19 +873,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1206,15 +1200,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EN21"/>
+  <dimension ref="A1:ET21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U26" sqref="U26"/>
+      <selection pane="topRight" activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
@@ -1339,22 +1333,33 @@
     <col min="121" max="121" width="8.875" style="2" customWidth="1"/>
     <col min="122" max="122" width="6" style="2" customWidth="1"/>
     <col min="123" max="123" width="4.875" style="2" customWidth="1"/>
-    <col min="124" max="124" width="8.875" style="2" customWidth="1"/>
+    <col min="124" max="124" width="7" style="2" customWidth="1"/>
     <col min="125" max="125" width="6" style="2" customWidth="1"/>
     <col min="126" max="126" width="4.875" style="2" customWidth="1"/>
-    <col min="127" max="127" width="8.875" style="2" customWidth="1"/>
-    <col min="128" max="128" width="6" style="2" customWidth="1"/>
-    <col min="129" max="129" width="4.875" style="2" customWidth="1"/>
+    <col min="127" max="127" width="8.375" style="2" customWidth="1"/>
+    <col min="128" max="129" width="4.875" style="2" customWidth="1"/>
     <col min="130" max="130" width="8.875" style="2" customWidth="1"/>
     <col min="131" max="131" width="6" style="2" customWidth="1"/>
     <col min="132" max="132" width="4.875" style="2" customWidth="1"/>
     <col min="133" max="133" width="8.875" style="2" customWidth="1"/>
     <col min="134" max="134" width="6" style="2" customWidth="1"/>
-    <col min="135" max="138" width="4.875" style="2" customWidth="1"/>
-    <col min="139" max="139" width="5.125" style="2" customWidth="1"/>
-    <col min="140" max="143" width="6" style="2" customWidth="1"/>
+    <col min="135" max="135" width="4.875" style="2" customWidth="1"/>
+    <col min="136" max="136" width="8.875" style="2" customWidth="1"/>
+    <col min="137" max="137" width="6" style="2" customWidth="1"/>
+    <col min="138" max="138" width="4.875" style="2" customWidth="1"/>
+    <col min="139" max="139" width="8.875" style="2" customWidth="1"/>
+    <col min="140" max="140" width="6" style="2" customWidth="1"/>
+    <col min="141" max="141" width="4.875" style="2" customWidth="1"/>
+    <col min="142" max="142" width="5.125" style="2" customWidth="1"/>
+    <col min="143" max="143" width="6" style="2" customWidth="1"/>
     <col min="144" max="144" width="4.875" style="2" customWidth="1"/>
-    <col min="145" max="16384" width="9" style="3"/>
+    <col min="145" max="145" width="5.125" style="2" customWidth="1"/>
+    <col min="146" max="146" width="6" style="2" customWidth="1"/>
+    <col min="147" max="147" width="4.875" style="2" customWidth="1"/>
+    <col min="148" max="148" width="5.125" style="2" customWidth="1"/>
+    <col min="149" max="149" width="6" style="2" customWidth="1"/>
+    <col min="150" max="150" width="4.875" style="2" customWidth="1"/>
+    <col min="151" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1385,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:144">
+    <row r="3" s="1" customFormat="1" spans="1:148">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,11 +1472,11 @@
       <c r="CA3" s="1">
         <v>25</v>
       </c>
-      <c r="CD3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>9</v>
+      <c r="CD3" s="1">
+        <v>26</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>27</v>
       </c>
       <c r="CJ3" s="1">
         <v>28</v>
@@ -1524,792 +1529,827 @@
       <c r="EF3" s="1">
         <v>44</v>
       </c>
-      <c r="EI3" s="4">
+      <c r="EI3" s="1">
         <v>45</v>
       </c>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4"/>
-      <c r="EL3" s="4">
+      <c r="EL3" s="1">
         <v>46</v>
       </c>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
+      <c r="EO3" s="1">
+        <v>47</v>
+      </c>
+      <c r="ER3" s="1">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:144">
+    <row r="4" s="1" customFormat="1" spans="1:150">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="V4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="Y4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AB4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AE4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AH4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AK4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AN4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AQ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AT4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AW4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="AZ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BC4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BF4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BI4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BJ4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BL4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BM4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BO4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BP4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BR4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BS4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BU4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BV4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BX4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BY4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CB4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CD4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CE4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CG4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CH4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CJ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CK4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CM4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CN4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CP4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CQ4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CS4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CT4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CV4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CW4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="CY4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CZ4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DB4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DC4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DE4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DF4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DH4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DI4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DK4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DM4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DL4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DN4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DO4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DQ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DR4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DT4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DV4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DU4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DW4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DY4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="DX4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="DZ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="EA4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EB4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="EC4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EE4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="ED4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="EF4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EH4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="EG4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EH4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="EI4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="EJ4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EK4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="EL4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EM4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="EM4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EN4" s="1" t="s">
-        <v>12</v>
+      <c r="EO4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="ER4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:144">
+    <row r="9" s="2" customFormat="1" spans="2:150">
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q9" s="2">
         <v>100</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T9" s="2">
         <v>100</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AL9" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD9" s="2">
         <v>2</v>
       </c>
       <c r="BE9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF9" s="2" t="s">
+      <c r="BG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI9" s="2" t="s">
+      <c r="BM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL9" s="2" t="s">
+      <c r="BP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="2" t="s">
+      <c r="BS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="2" t="s">
+      <c r="BV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="2" t="s">
+      <c r="BY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB9" s="2">
         <v>1.5</v>
       </c>
       <c r="CC9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE9" s="2">
         <v>1</v>
       </c>
       <c r="CF9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH9" s="2">
         <v>1</v>
       </c>
       <c r="CI9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="s">
+      <c r="CQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="2" t="s">
+      <c r="CT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS9" s="2" t="s">
+      <c r="CW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV9" s="2" t="s">
+      <c r="CZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB9" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC9" s="2">
         <v>1</v>
       </c>
       <c r="DD9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH9" s="2" t="s">
+      <c r="DL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="2" t="s">
+      <c r="DO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="2" t="s">
+      <c r="DR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="2" t="s">
+      <c r="DU9" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT9" s="2" t="s">
+      <c r="DX9" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU9" s="2">
+      <c r="EA9" s="2">
         <v>50</v>
       </c>
-      <c r="DW9" s="2" t="s">
+      <c r="EC9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ9" s="2" t="s">
+      <c r="ED9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA9" s="2">
+      <c r="EG9" s="2">
         <v>7</v>
       </c>
-      <c r="EB9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF9" s="2" t="s">
+      <c r="EH9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG9" s="2">
+      <c r="EM9" s="2">
         <v>1</v>
       </c>
-      <c r="EI9" s="2" t="s">
+      <c r="EO9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ9" s="2">
+      <c r="EP9" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL9" s="2" t="s">
+      <c r="EQ9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM9" s="2">
+      <c r="ES9" s="2">
         <v>360</v>
       </c>
-      <c r="EN9" s="2" t="s">
-        <v>33</v>
+      <c r="ET9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="2:144">
+    <row r="10" s="2" customFormat="1" spans="2:150">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -2317,319 +2357,334 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q10" s="2">
         <v>100</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T10" s="2">
         <v>100</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AL10" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD10" s="2">
         <v>2</v>
       </c>
       <c r="BE10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF10" s="2" t="s">
+      <c r="BG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI10" s="2" t="s">
+      <c r="BM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL10" s="2" t="s">
+      <c r="BP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="2" t="s">
+      <c r="BS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="2" t="s">
+      <c r="BV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="2" t="s">
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB10" s="2">
         <v>1.5</v>
       </c>
       <c r="CC10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE10" s="2">
         <v>1</v>
       </c>
       <c r="CF10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH10" s="2">
         <v>1</v>
       </c>
       <c r="CI10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="2" t="s">
+      <c r="CQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP10" s="2" t="s">
+      <c r="CT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS10" s="2" t="s">
+      <c r="CW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV10" s="2" t="s">
+      <c r="CZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC10" s="2">
         <v>1</v>
       </c>
       <c r="DD10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH10" s="2" t="s">
+      <c r="DL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="2" t="s">
+      <c r="DO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="2" t="s">
+      <c r="DR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="2" t="s">
+      <c r="DU10" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT10" s="2" t="s">
+      <c r="DX10" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU10" s="2">
+      <c r="EA10" s="2">
         <v>50</v>
       </c>
-      <c r="DW10" s="2" t="s">
+      <c r="EC10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX10" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ10" s="2" t="s">
+      <c r="ED10" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA10" s="2">
+      <c r="EG10" s="2">
         <v>7</v>
       </c>
-      <c r="EB10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF10" s="2" t="s">
+      <c r="EH10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG10" s="2">
+      <c r="EM10" s="2">
         <v>1</v>
       </c>
-      <c r="EI10" s="2" t="s">
+      <c r="EO10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ10" s="2">
+      <c r="EP10" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL10" s="2" t="s">
+      <c r="EQ10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM10" s="2">
+      <c r="ES10" s="2">
         <v>360</v>
       </c>
-      <c r="EN10" s="2" t="s">
-        <v>33</v>
+      <c r="ET10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:144">
+    <row r="11" s="2" customFormat="1" spans="2:150">
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -2637,320 +2692,335 @@
         <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q11" s="2">
         <v>100</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T11" s="2">
         <v>100</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AL11" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL11" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD11" s="2">
         <v>2</v>
       </c>
       <c r="BE11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="2" t="s">
+      <c r="BG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI11" s="2" t="s">
+      <c r="BM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL11" s="2" t="s">
+      <c r="BP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="2" t="s">
+      <c r="BS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="2" t="s">
+      <c r="BV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="2" t="s">
+      <c r="BY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB11" s="2">
         <v>1.5</v>
       </c>
       <c r="CC11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE11" s="2">
         <v>1</v>
       </c>
       <c r="CF11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH11" s="2">
         <v>1</v>
       </c>
       <c r="CI11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="2" t="s">
+      <c r="CQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="2" t="s">
+      <c r="CT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS11" s="2" t="s">
+      <c r="CW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV11" s="2" t="s">
+      <c r="CZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB11" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC11" s="2">
         <v>1</v>
       </c>
       <c r="DD11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH11" s="2" t="s">
+      <c r="DL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK11" s="2" t="s">
+      <c r="DO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN11" s="2" t="s">
+      <c r="DR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="2" t="s">
+      <c r="DU11" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="2" t="s">
+      <c r="DX11" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU11" s="2">
+      <c r="EA11" s="2">
         <v>50</v>
       </c>
-      <c r="DW11" s="2" t="s">
+      <c r="EC11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX11" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ11" s="2" t="s">
+      <c r="ED11" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA11" s="2">
+      <c r="EG11" s="2">
         <v>10</v>
       </c>
-      <c r="EB11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF11" s="2" t="s">
+      <c r="EH11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG11" s="2">
+      <c r="EM11" s="2">
         <v>1</v>
       </c>
-      <c r="EI11" s="2" t="s">
+      <c r="EO11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ11" s="2">
+      <c r="EP11" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL11" s="2" t="s">
+      <c r="EQ11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM11" s="2">
+      <c r="ES11" s="2">
         <v>360</v>
       </c>
-      <c r="EN11" s="2" t="s">
-        <v>33</v>
+      <c r="ET11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="2" customFormat="1" spans="2:144">
+    <row r="13" s="2" customFormat="1" spans="2:150">
       <c r="B13" s="2">
         <v>10000</v>
       </c>
@@ -2958,37 +3028,37 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>300</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
+        <v>300</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="2">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q13" s="2">
         <v>100</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T13" s="2">
         <v>100</v>
@@ -2997,7 +3067,7 @@
         <v>66</v>
       </c>
       <c r="W13" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>67</v>
@@ -3006,277 +3076,292 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AL13" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL13" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="2" t="s">
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD13" s="2">
         <v>2</v>
       </c>
       <c r="BE13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF13" s="2" t="s">
+      <c r="BG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI13" s="2" t="s">
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL13" s="2" t="s">
+      <c r="BP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="2" t="s">
+      <c r="BS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="2" t="s">
+      <c r="BV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="2" t="s">
+      <c r="BY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB13" s="2">
         <v>4.2</v>
       </c>
       <c r="CC13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE13" s="2">
         <v>1</v>
       </c>
       <c r="CF13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH13" s="2">
         <v>1</v>
       </c>
       <c r="CI13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="2" t="s">
+      <c r="CQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="2" t="s">
+      <c r="CT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS13" s="2" t="s">
+      <c r="CW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV13" s="2" t="s">
+      <c r="CZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC13" s="2">
         <v>1</v>
       </c>
       <c r="DD13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH13" s="2" t="s">
+      <c r="DL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK13" s="2" t="s">
+      <c r="DO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN13" s="2" t="s">
+      <c r="DR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ13" s="2" t="s">
+      <c r="DU13" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW13" s="2" t="s">
+      <c r="DX13" s="2">
+        <v>100</v>
+      </c>
+      <c r="EC13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX13" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC13" s="2" t="s">
+      <c r="ED13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EI13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="ED13" s="2">
+      <c r="EJ13" s="2">
         <v>0.5</v>
       </c>
-      <c r="EE13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF13" s="2" t="s">
+      <c r="EK13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG13" s="2">
+      <c r="EM13" s="2">
         <v>1</v>
       </c>
-      <c r="EI13" s="2" t="s">
+      <c r="EO13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ13" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="EK13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL13" s="2" t="s">
+      <c r="EP13" s="2">
+        <v>2</v>
+      </c>
+      <c r="EQ13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM13" s="2">
+      <c r="ES13" s="2">
         <v>360</v>
       </c>
-      <c r="EN13" s="2" t="s">
-        <v>33</v>
+      <c r="ET13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:144">
+    <row r="14" s="2" customFormat="1" spans="2:150">
       <c r="B14" s="2">
         <v>10001</v>
       </c>
@@ -3284,37 +3369,37 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2">
+        <v>200</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q14" s="2">
         <v>100</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T14" s="2">
         <v>100</v>
@@ -3323,7 +3408,7 @@
         <v>66</v>
       </c>
       <c r="W14" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>67</v>
@@ -3332,277 +3417,292 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AL14" s="2">
+        <v>90</v>
+      </c>
+      <c r="AN14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL14" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD14" s="2">
         <v>2</v>
       </c>
       <c r="BE14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF14" s="2" t="s">
+      <c r="BG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI14" s="2" t="s">
+      <c r="BM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL14" s="2" t="s">
+      <c r="BP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO14" s="2" t="s">
+      <c r="BS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR14" s="2" t="s">
+      <c r="BV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU14" s="2" t="s">
+      <c r="BY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB14" s="2">
         <v>4.2</v>
       </c>
       <c r="CC14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH14" s="2">
         <v>1</v>
       </c>
       <c r="CI14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM14" s="2" t="s">
+      <c r="CQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP14" s="2" t="s">
+      <c r="CT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS14" s="2" t="s">
+      <c r="CW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV14" s="2" t="s">
+      <c r="CZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW14" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC14" s="2">
         <v>1</v>
       </c>
       <c r="DD14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH14" s="2" t="s">
+      <c r="DL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK14" s="2" t="s">
+      <c r="DO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN14" s="2" t="s">
+      <c r="DR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ14" s="2" t="s">
+      <c r="DU14" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW14" s="2" t="s">
+      <c r="DX14" s="2">
+        <v>100</v>
+      </c>
+      <c r="EC14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX14" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC14" s="2" t="s">
+      <c r="ED14" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EI14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="ED14" s="2">
+      <c r="EJ14" s="2">
         <v>0.5</v>
       </c>
-      <c r="EE14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF14" s="2" t="s">
+      <c r="EK14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG14" s="2">
+      <c r="EM14" s="2">
         <v>1</v>
       </c>
-      <c r="EI14" s="2" t="s">
+      <c r="EO14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ14" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="EK14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL14" s="2" t="s">
+      <c r="EP14" s="2">
+        <v>2</v>
+      </c>
+      <c r="EQ14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM14" s="2">
+      <c r="ES14" s="2">
         <v>360</v>
       </c>
-      <c r="EN14" s="2" t="s">
-        <v>33</v>
+      <c r="ET14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="2:144">
+    <row r="15" s="2" customFormat="1" spans="2:150">
       <c r="B15" s="2">
         <v>10002</v>
       </c>
@@ -3610,37 +3710,37 @@
         <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2">
+        <v>200</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="2">
-        <v>50</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q15" s="2">
         <v>100</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T15" s="2">
         <v>100</v>
@@ -3649,7 +3749,7 @@
         <v>66</v>
       </c>
       <c r="W15" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>67</v>
@@ -3658,278 +3758,292 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AL15" s="2">
+        <v>90</v>
+      </c>
+      <c r="AN15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL15" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="2" t="s">
+      <c r="AX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="2" t="s">
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD15" s="2">
         <v>2</v>
       </c>
       <c r="BE15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF15" s="2" t="s">
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI15" s="2" t="s">
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL15" s="2" t="s">
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="2" t="s">
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="2" t="s">
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="2" t="s">
+      <c r="BY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB15" s="2">
         <v>4.2</v>
       </c>
       <c r="CC15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE15" s="2">
         <v>1</v>
       </c>
       <c r="CF15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>2</v>
+      </c>
+      <c r="CI15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="CH15" s="2">
-        <v>1</v>
-      </c>
-      <c r="CI15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ15" s="2" t="s">
+      <c r="CN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="2" t="s">
+      <c r="CQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="2" t="s">
+      <c r="CT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS15" s="2" t="s">
+      <c r="CW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV15" s="2" t="s">
+      <c r="CZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB15" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC15" s="2">
         <v>1</v>
       </c>
       <c r="DD15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH15" s="2" t="s">
+      <c r="DL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK15" s="2" t="s">
+      <c r="DO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN15" s="2" t="s">
+      <c r="DR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ15" s="2" t="s">
+      <c r="DU15" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="2" t="s">
+      <c r="DX15" s="2">
+        <v>100</v>
+      </c>
+      <c r="EC15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX15" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC15" s="2" t="s">
+      <c r="ED15" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EI15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="ED15" s="2">
+      <c r="EJ15" s="2">
         <v>0.5</v>
       </c>
-      <c r="EE15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF15" s="2" t="s">
+      <c r="EK15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG15" s="2">
+      <c r="EM15" s="2">
         <v>1</v>
       </c>
-      <c r="EI15" s="2" t="s">
+      <c r="EO15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ15" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="EK15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL15" s="2" t="s">
+      <c r="EP15" s="2">
+        <v>2</v>
+      </c>
+      <c r="EQ15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM15" s="2">
+      <c r="ES15" s="2">
         <v>360</v>
       </c>
-      <c r="EN15" s="2" t="s">
-        <v>33</v>
+      <c r="ET15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1" spans="2:144">
+    <row r="17" s="2" customFormat="1" spans="2:150">
       <c r="B17" s="2">
         <v>20000</v>
       </c>
@@ -3937,319 +4051,334 @@
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>700</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2">
+        <v>700</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="2">
         <v>100</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T17" s="2">
         <v>50</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AL17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL17" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="2" t="s">
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD17" s="2">
         <v>2</v>
       </c>
       <c r="BE17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF17" s="2" t="s">
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI17" s="2" t="s">
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL17" s="2" t="s">
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO17" s="2" t="s">
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="2" t="s">
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="2" t="s">
+      <c r="BY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB17" s="2">
         <v>1.5</v>
       </c>
       <c r="CC17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE17" s="2">
         <v>1</v>
       </c>
       <c r="CF17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH17" s="2">
         <v>1</v>
       </c>
       <c r="CI17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="2" t="s">
+      <c r="CQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP17" s="2" t="s">
+      <c r="CT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS17" s="2" t="s">
+      <c r="CW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV17" s="2" t="s">
+      <c r="CZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB17" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC17" s="2">
         <v>1</v>
       </c>
       <c r="DD17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH17" s="2" t="s">
+      <c r="DL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK17" s="2" t="s">
+      <c r="DO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN17" s="2" t="s">
+      <c r="DR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ17" s="2" t="s">
+      <c r="DU17" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT17" s="2" t="s">
+      <c r="DX17" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU17" s="2">
+      <c r="EA17" s="2">
         <v>50</v>
       </c>
-      <c r="DW17" s="2" t="s">
+      <c r="EC17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX17" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ17" s="2" t="s">
+      <c r="ED17" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA17" s="2">
+      <c r="EG17" s="2">
         <v>7</v>
       </c>
-      <c r="EB17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF17" s="2" t="s">
+      <c r="EH17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG17" s="2">
+      <c r="EM17" s="2">
         <v>1</v>
       </c>
-      <c r="EI17" s="2" t="s">
+      <c r="EO17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ17" s="2">
+      <c r="EP17" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL17" s="2" t="s">
+      <c r="EQ17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM17" s="2">
-        <v>120</v>
-      </c>
-      <c r="EN17" s="2" t="s">
-        <v>33</v>
+      <c r="ES17" s="2">
+        <v>360</v>
+      </c>
+      <c r="ET17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:144">
+    <row r="18" s="2" customFormat="1" spans="2:150">
       <c r="B18" s="2">
         <v>20001</v>
       </c>
@@ -4257,319 +4386,334 @@
         <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="2">
-        <v>150</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2">
-        <v>150</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q18" s="2">
         <v>100</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T18" s="2">
         <v>50</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AL18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL18" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2" t="s">
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="2" t="s">
+      <c r="BA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC18" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD18" s="2">
         <v>2</v>
       </c>
       <c r="BE18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF18" s="2" t="s">
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI18" s="2" t="s">
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL18" s="2" t="s">
+      <c r="BP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="2" t="s">
+      <c r="BS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="2" t="s">
+      <c r="BV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU18" s="2" t="s">
+      <c r="BY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB18" s="2">
         <v>1.5</v>
       </c>
       <c r="CC18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE18" s="2">
         <v>1</v>
       </c>
       <c r="CF18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH18" s="2">
         <v>1</v>
       </c>
       <c r="CI18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM18" s="2" t="s">
+      <c r="CQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP18" s="2" t="s">
+      <c r="CT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS18" s="2" t="s">
+      <c r="CW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV18" s="2" t="s">
+      <c r="CZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB18" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC18" s="2">
         <v>1</v>
       </c>
       <c r="DD18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH18" s="2" t="s">
+      <c r="DL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK18" s="2" t="s">
+      <c r="DO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN18" s="2" t="s">
+      <c r="DR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ18" s="2" t="s">
+      <c r="DU18" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT18" s="2" t="s">
+      <c r="DX18" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU18" s="2">
+      <c r="EA18" s="2">
         <v>50</v>
       </c>
-      <c r="DW18" s="2" t="s">
+      <c r="EC18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX18" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ18" s="2" t="s">
+      <c r="ED18" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA18" s="2">
+      <c r="EG18" s="2">
         <v>7</v>
       </c>
-      <c r="EB18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF18" s="2" t="s">
+      <c r="EH18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG18" s="2">
+      <c r="EM18" s="2">
         <v>1</v>
       </c>
-      <c r="EI18" s="2" t="s">
+      <c r="EO18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ18" s="2">
+      <c r="EP18" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL18" s="2" t="s">
+      <c r="EQ18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM18" s="2">
-        <v>120</v>
-      </c>
-      <c r="EN18" s="2" t="s">
-        <v>33</v>
+      <c r="ES18" s="2">
+        <v>360</v>
+      </c>
+      <c r="ET18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="2:144">
+    <row r="19" s="2" customFormat="1" spans="2:150">
       <c r="B19" s="2">
         <v>20002</v>
       </c>
@@ -4577,320 +4721,334 @@
         <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
+        <v>500</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2">
-        <v>80</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q19" s="2">
         <v>100</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T19" s="2">
         <v>50</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AL19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL19" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
+      <c r="AU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="2" t="s">
+      <c r="AX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="2" t="s">
+      <c r="BA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD19" s="2">
         <v>2</v>
       </c>
       <c r="BE19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF19" s="2" t="s">
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI19" s="2" t="s">
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BJ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL19" s="2" t="s">
+      <c r="BP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BM19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO19" s="2" t="s">
+      <c r="BS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR19" s="2" t="s">
+      <c r="BV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU19" s="2" t="s">
+      <c r="BY19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="BV19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA19" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="CB19" s="2">
         <v>1.5</v>
       </c>
       <c r="CC19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE19" s="2">
         <v>1</v>
       </c>
       <c r="CF19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH19" s="2">
         <v>1</v>
       </c>
       <c r="CI19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM19" s="2" t="s">
+      <c r="CQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP19" s="2" t="s">
+      <c r="CT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CQ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS19" s="2" t="s">
+      <c r="CW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CT19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV19" s="2" t="s">
+      <c r="CZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="CW19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CZ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="DC19" s="2">
         <v>1</v>
       </c>
       <c r="DD19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH19" s="2" t="s">
+      <c r="DL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK19" s="2" t="s">
+      <c r="DO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN19" s="2" t="s">
+      <c r="DR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ19" s="2" t="s">
+      <c r="DU19" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT19" s="2" t="s">
+      <c r="DX19" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU19" s="2">
+      <c r="EA19" s="2">
         <v>50</v>
       </c>
-      <c r="DW19" s="2" t="s">
+      <c r="EC19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX19" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ19" s="2" t="s">
+      <c r="ED19" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA19" s="2">
+      <c r="EG19" s="2">
         <v>10</v>
       </c>
-      <c r="EB19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF19" s="2" t="s">
+      <c r="EH19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EL19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG19" s="2">
+      <c r="EM19" s="2">
         <v>1</v>
       </c>
-      <c r="EI19" s="2" t="s">
+      <c r="EO19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ19" s="2">
+      <c r="EP19" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL19" s="2" t="s">
+      <c r="EQ19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM19" s="2">
-        <v>120</v>
-      </c>
-      <c r="EN19" s="2" t="s">
-        <v>33</v>
+      <c r="ES19" s="2">
+        <v>360</v>
+      </c>
+      <c r="ET19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1" spans="2:144">
+    <row r="21" s="2" customFormat="1" spans="2:150">
       <c r="B21" s="2">
         <v>30001</v>
       </c>
@@ -4898,333 +5056,348 @@
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>200</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2">
+        <v>200</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q21" s="2">
         <v>100</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T21" s="2">
         <v>100</v>
       </c>
       <c r="AB21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="AL21" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AX21" s="2">
         <v>0</v>
       </c>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC21" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BA21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="BD21" s="2">
         <v>2</v>
       </c>
       <c r="BE21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF21" s="2" t="s">
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL21" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="BG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL21" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="BM21" s="2">
         <v>0</v>
       </c>
       <c r="BN21" s="2"/>
       <c r="BO21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BP21" s="2">
         <v>0</v>
       </c>
       <c r="BQ21" s="2"/>
       <c r="BR21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BS21" s="2">
         <v>0</v>
       </c>
       <c r="BT21" s="2"/>
       <c r="BU21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BV21" s="2">
         <v>0</v>
       </c>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BY21" s="2">
         <v>0</v>
       </c>
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CB21" s="2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="CC21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CD21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE21" s="2">
         <v>1</v>
       </c>
       <c r="CF21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CG21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CH21" s="2">
         <v>1</v>
       </c>
       <c r="CI21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CJ21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM21" s="2" t="s">
+      <c r="CQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CN21" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP21" s="2" t="s">
+      <c r="CT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="CQ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT21" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV21" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="CW21" s="2">
         <v>0</v>
       </c>
       <c r="CX21" s="2"/>
       <c r="CY21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CZ21" s="2">
         <v>0</v>
       </c>
       <c r="DA21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DB21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DC21" s="2">
         <v>1</v>
       </c>
       <c r="DD21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DE21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="DF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH21" s="2" t="s">
+      <c r="DL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="DI21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK21" s="2" t="s">
+      <c r="DO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DL21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN21" s="2" t="s">
+      <c r="DR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="DO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ21" s="2" t="s">
+      <c r="DU21" s="2">
+        <v>100</v>
+      </c>
+      <c r="DW21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DR21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT21" s="2" t="s">
+      <c r="DX21" s="2">
+        <v>50</v>
+      </c>
+      <c r="DZ21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DU21" s="2">
+      <c r="EA21" s="2">
         <v>50</v>
       </c>
-      <c r="DW21" s="2" t="s">
+      <c r="EC21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DX21" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ21" s="2" t="s">
+      <c r="ED21" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="EA21" s="2">
+      <c r="EG21" s="2">
         <v>7</v>
       </c>
-      <c r="EB21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC21" s="2"/>
-      <c r="ED21" s="2"/>
-      <c r="EF21" s="2" t="s">
+      <c r="EH21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EI21" s="2"/>
+      <c r="EJ21" s="2"/>
+      <c r="EL21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="EG21" s="2">
+      <c r="EM21" s="2">
         <v>1</v>
       </c>
-      <c r="EI21" s="2" t="s">
+      <c r="EO21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="EJ21" s="2">
+      <c r="EP21" s="2">
         <v>1.5</v>
       </c>
-      <c r="EK21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL21" s="2" t="s">
+      <c r="EQ21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EM21" s="2">
+      <c r="ES21" s="2">
         <v>360</v>
       </c>
-      <c r="EN21" s="2" t="s">
-        <v>33</v>
+      <c r="ET21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="D1:EN1"/>
-    <mergeCell ref="D2:EN2"/>
+  <mergeCells count="51">
+    <mergeCell ref="D1:ET1"/>
+    <mergeCell ref="D2:ET2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
@@ -5272,6 +5445,8 @@
     <mergeCell ref="EF3:EH3"/>
     <mergeCell ref="EI3:EK3"/>
     <mergeCell ref="EL3:EN3"/>
+    <mergeCell ref="EO3:EQ3"/>
+    <mergeCell ref="ER3:ET3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
